--- a/analysis_scripts_iclamp/WKY32.xlsx
+++ b/analysis_scripts_iclamp/WKY32.xlsx
@@ -13,12 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="31" uniqueCount="31">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>2024_11_13_04_0003.abf</t>
+    <t>2023_01_24_03_0009.abf</t>
+  </si>
+  <si>
+    <t>2023_01_24_03_0010.abf</t>
+  </si>
+  <si>
+    <t>2023_01_24_03_0011.abf</t>
+  </si>
+  <si>
+    <t>2023_01_24_03_0012.abf</t>
   </si>
   <si>
     <t>Average</t>
@@ -97,24 +106,6 @@
   </si>
   <si>
     <t>Sweep_25</t>
-  </si>
-  <si>
-    <t>Sweep_26</t>
-  </si>
-  <si>
-    <t>Sweep_27</t>
-  </si>
-  <si>
-    <t>Sweep_28</t>
-  </si>
-  <si>
-    <t>2024_08_07_01_0006.abf</t>
-  </si>
-  <si>
-    <t>2024_08_07_01_0008.abf</t>
-  </si>
-  <si>
-    <t>2024_08_07_01_0010.abf</t>
   </si>
 </sst>
 </file>
@@ -160,7 +151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -192,9 +183,6 @@
     <col min="24" max="24" width="10.140625" customWidth="true"/>
     <col min="25" max="25" width="10.140625" customWidth="true"/>
     <col min="26" max="26" width="10.140625" customWidth="true"/>
-    <col min="27" max="27" width="10.140625" customWidth="true"/>
-    <col min="28" max="28" width="10.140625" customWidth="true"/>
-    <col min="29" max="29" width="10.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -202,93 +190,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -306,62 +285,69 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0">
         <v>3</v>
       </c>
-      <c r="H2" s="0">
+      <c r="R2" s="0">
+        <v>6</v>
+      </c>
+      <c r="S2" s="0">
         <v>4</v>
       </c>
-      <c r="I2" s="0">
-        <v>11</v>
-      </c>
-      <c r="J2" s="0">
-        <v>16</v>
-      </c>
-      <c r="K2" s="0">
-        <v>19</v>
-      </c>
-      <c r="L2" s="0">
-        <v>22</v>
-      </c>
-      <c r="M2" s="0">
-        <v>24</v>
-      </c>
-      <c r="N2" s="0">
-        <v>25</v>
-      </c>
-      <c r="O2" s="0">
-        <v>29</v>
-      </c>
-      <c r="P2" s="0">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0">
-        <v>42</v>
-      </c>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>19</v>
+      <c r="T2" s="0">
+        <v>7</v>
+      </c>
+      <c r="U2" s="0">
+        <v>7</v>
+      </c>
+      <c r="V2" s="0">
+        <v>6</v>
+      </c>
+      <c r="W2" s="0">
+        <v>6</v>
+      </c>
+      <c r="X2" s="0">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -379,78 +365,69 @@
         <v>0</v>
       </c>
       <c r="G3" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0">
         <v>2</v>
       </c>
-      <c r="H3" s="0">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0">
-        <v>15</v>
-      </c>
-      <c r="J3" s="0">
-        <v>17</v>
-      </c>
-      <c r="K3" s="0">
-        <v>20</v>
-      </c>
-      <c r="L3" s="0">
-        <v>21</v>
-      </c>
-      <c r="M3" s="0">
-        <v>23</v>
-      </c>
-      <c r="N3" s="0">
-        <v>25</v>
-      </c>
-      <c r="O3" s="0">
-        <v>29</v>
-      </c>
-      <c r="P3" s="0">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>33</v>
-      </c>
       <c r="R3" s="0">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="S3" s="0">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="T3" s="0">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="U3" s="0">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="V3" s="0">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="W3" s="0">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="X3" s="0">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="0">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>19</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -465,147 +442,227 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0">
         <v>1</v>
       </c>
-      <c r="G4" s="0">
+      <c r="Q4" s="0">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0">
+        <v>4</v>
+      </c>
+      <c r="S4" s="0">
+        <v>5</v>
+      </c>
+      <c r="T4" s="0">
+        <v>5</v>
+      </c>
+      <c r="U4" s="0">
+        <v>8</v>
+      </c>
+      <c r="V4" s="0">
+        <v>9</v>
+      </c>
+      <c r="W4" s="0">
+        <v>10</v>
+      </c>
+      <c r="X4" s="0">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="0">
         <v>11</v>
       </c>
-      <c r="H4" s="0">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0">
-        <v>17</v>
-      </c>
-      <c r="J4" s="0">
-        <v>20</v>
-      </c>
-      <c r="K4" s="0">
-        <v>22</v>
-      </c>
-      <c r="L4" s="0">
-        <v>24</v>
-      </c>
-      <c r="M4" s="0">
-        <v>26</v>
-      </c>
-      <c r="N4" s="0">
-        <v>31</v>
-      </c>
-      <c r="O4" s="0">
-        <v>28</v>
-      </c>
-      <c r="P4" s="0">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>43</v>
-      </c>
-      <c r="R4" s="0">
-        <v>48</v>
-      </c>
-      <c r="S4" s="0">
-        <v>45</v>
-      </c>
-      <c r="T4" s="0">
-        <v>54</v>
-      </c>
-      <c r="U4" s="0">
-        <v>43</v>
-      </c>
-      <c r="V4" s="0">
-        <v>41</v>
-      </c>
-      <c r="W4" s="0">
-        <v>38</v>
-      </c>
-      <c r="X4" s="0">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="0">
-        <v>34</v>
-      </c>
       <c r="Z4" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0">
         <v>2</v>
       </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G5" s="0">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="H5" s="0">
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="I5" s="0">
-        <v>14.333333333333334</v>
-      </c>
-      <c r="J5" s="0">
-        <v>17.666666666666668</v>
-      </c>
-      <c r="K5" s="0">
-        <v>20.333333333333332</v>
-      </c>
-      <c r="L5" s="0">
-        <v>22.333333333333332</v>
-      </c>
-      <c r="M5" s="0">
-        <v>24.333333333333332</v>
-      </c>
-      <c r="N5" s="0">
-        <v>27</v>
-      </c>
-      <c r="O5" s="0">
-        <v>28.666666666666668</v>
-      </c>
-      <c r="P5" s="0">
-        <v>32.333333333333336</v>
-      </c>
       <c r="Q5" s="0">
-        <v>37.666666666666664</v>
+        <v>1</v>
       </c>
       <c r="R5" s="0">
-        <v>43.333333333333336</v>
+        <v>5</v>
       </c>
       <c r="S5" s="0">
-        <v>43.5</v>
+        <v>7</v>
       </c>
       <c r="T5" s="0">
-        <v>49.5</v>
+        <v>7</v>
       </c>
       <c r="U5" s="0">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="V5" s="0">
-        <v>45.5</v>
+        <v>9</v>
       </c>
       <c r="W5" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="X5" s="0">
-        <v>42.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="0">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="Z5" s="0">
-        <v>41</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0">
+        <v>5</v>
+      </c>
+      <c r="S6" s="0">
+        <v>4.75</v>
+      </c>
+      <c r="T6" s="0">
+        <v>6.25</v>
+      </c>
+      <c r="U6" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="V6" s="0">
+        <v>8</v>
+      </c>
+      <c r="W6" s="0">
+        <v>8</v>
+      </c>
+      <c r="X6" s="0">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
